--- a/src/main/webapp/WEB-INF/dataBaseFile/oracle/oracle_Create.xlsx
+++ b/src/main/webapp/WEB-INF/dataBaseFile/oracle/oracle_Create.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:Q2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CUCUIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +45,20 @@
        DTL_CD       VARCHAR2(4)  ,
        DTL_CD_NM    VARCHAR2(40) ,
      CONSTRAINT CUCOCD_PK PRIMARY KEY(CD,SEQ,DTL_CD)
+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUMNIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE CUMNIF (
+       MENU_ID           VARCHAR2(6)  NOT NULL ,
+       MENU_PG_ID        VARCHAR2(8)  NOT NULL ,
+       MENU_PG_NM          VARCHAR2(200) NOT NULL ,
+       MENU_PG_URL       VARCHAR2(200)  ,
+     CONSTRAINT CUMNIF_PK PRIMARY KEY(MENU_ID)
 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,6 +439,14 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
